--- a/Consultant_Active_Reports/Active_Candidates_Monie_Rogers.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Monie_Rogers.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,58 +611,58 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ENT AE East</t>
+          <t>Enterprise AE x5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Daniel Smith</t>
+          <t>Ryan Finkelstein</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45974</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ryan Finkelstein</t>
+          <t>Mustafa Hubaishi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45992</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="9">
@@ -695,44 +695,44 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Materialize</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>CS3 Materialize - Enterprise Account Executive x3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mustafa Hubaishi</t>
+          <t>Ryan Finkelstein</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45985</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
@@ -751,77 +751,77 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>751</v>
+        <v>776</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Materialize</t>
+          <t>PointFive</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CS3 Materialize - Enterprise Account Executive x3</t>
+          <t>Enterprise AE (EST)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ryan Finkelstein</t>
+          <t>Daniel Smith</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45993</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Port</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>Mid-Market AE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Daniel Smith</t>
+          <t>Christopher Blair</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45992</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PointFive</t>
+          <t>Energy Robotics</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Enterprise AE (EST)</t>
+          <t>Partner Manager (UAE)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Daniel Smith</t>
+          <t>Hashem Abughazaleh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,40 +830,40 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45992</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mid-Market AE</t>
+          <t>Enterprise AE UK (Finance Automation)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Christopher Blair</t>
+          <t>Greg Keene</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -872,49 +872,49 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Partner Manager (UAE)</t>
+          <t>Partner Manager (Houston)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hashem Abughazaleh</t>
+          <t>[deleted]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45989</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Energy Robotics</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Enterprise AE UK (Finance Automation)</t>
+          <t>Partner Manager (Houston)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Greg Keene</t>
+          <t>Ahmed Mirza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45987</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="18">
@@ -933,7 +933,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[deleted]</t>
+          <t>Shashwat Anand</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -942,35 +942,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45986</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>808</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Energy Robotics</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Partner Manager (Houston)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Ahmed Mirza</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>45987</v>
+        <v>45993</v>
       </c>
     </row>
   </sheetData>

--- a/Consultant_Active_Reports/Active_Candidates_Monie_Rogers.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Monie_Rogers.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +518,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
@@ -527,30 +527,30 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CodeRabbit</t>
+          <t>Metaview</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Commercial AE x5 Bay Area</t>
+          <t>Metaview - UK MM / Enterprise AE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kyle Brown</t>
+          <t>Federico  Belluci</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45995</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="5">
@@ -569,35 +569,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jackson  Smith</t>
+          <t>Ben Sawyer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45987</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rox</t>
+          <t>CodeRabbit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ENT AE East</t>
+          <t>Commercial AE x5 Bay Area</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Graham Hill</t>
+          <t>Jackson  Smith</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,26 +606,26 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45973</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>731</v>
+        <v>687</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>CodeRabbit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Commercial AE x5 Bay Area</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ryan Finkelstein</t>
+          <t>Kyle Brown</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,26 +634,26 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45992</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>ENT AE East</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mustafa Hubaishi</t>
+          <t>Graham Hill</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,166 +662,166 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45985</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (East)</t>
+          <t>Enterprise AE x5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Graham Hill</t>
+          <t>Ryan Finkelstein</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45987</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Materialize</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CS3 Materialize - Enterprise Account Executive x3</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ryan Finkelstein</t>
+          <t>Mustafa Hubaishi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45993</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>Enterprise Account Executive (East)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Daniel Smith</t>
+          <t>Graham Hill</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PointFive</t>
+          <t>Materialize</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Enterprise AE (EST)</t>
+          <t>CS3 Materialize - Enterprise Account Executive x3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Daniel Smith</t>
+          <t>Ryan Finkelstein</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mid-Market AE</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Christopher Blair</t>
+          <t>Daniel Smith</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45980</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>PointFive</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Partner Manager (UAE)</t>
+          <t>Enterprise AE (EST)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hashem Abughazaleh</t>
+          <t>Daniel Smith</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,68 +830,68 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45989</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Port</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterprise AE UK (Finance Automation)</t>
+          <t>Mid-Market AE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Greg Keene</t>
+          <t>Christopher Blair</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Energy Robotics</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Partner Manager (Houston)</t>
+          <t>Commercial AE Amsterdam</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[deleted]</t>
+          <t>Oskar Stepien</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45986</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -900,12 +900,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Partner Manager (Houston)</t>
+          <t>Partner Manager (UAE)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ahmed Mirza</t>
+          <t>Hashem Abughazaleh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -914,35 +914,119 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45993</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>796</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Redwood Software</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Enterprise AE UK (Finance Automation)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Greg Keene</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>808</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Energy Robotics</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Partner Manager (Houston)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ahmed Mirza</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3rd Interview</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45993</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>808</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Energy Robotics</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Partner Manager (Houston)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Shashwat Anand</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F20" s="2" t="n">
         <v>45993</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>808</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Energy Robotics</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Partner Manager (Houston)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[deleted]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45986</v>
       </c>
     </row>
   </sheetData>

--- a/Consultant_Active_Reports/Active_Candidates_Monie_Rogers.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Monie_Rogers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>598</v>
+        <v>650</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Navan</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enterprise AE London</t>
+          <t>Enterprise Account Executive - Nordics / Stockholm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tom Harries</t>
+          <t>[deleted]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,26 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>650</v>
+        <v>721</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive - Nordics / Stockholm</t>
+          <t>ENT AE East</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[deleted]</t>
+          <t>Graham Hill</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
@@ -537,76 +537,76 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>766</v>
+        <v>721</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>ENT AE East</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Daniel Smith</t>
+          <t>Graham Hill</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>783</v>
+        <v>721</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Port</t>
+          <t>Rox</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mid-Market AE</t>
+          <t>ENT AE East</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Christopher Blair</t>
+          <t>Graham Hill</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>796</v>
+        <v>766</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enterprise AE UK (Finance Automation)</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Alex  Kennedy</t>
+          <t>Daniel Smith</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tom Harries</t>
+          <t>Alex  Kennedy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,24 +637,74 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>796</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Redwood Software</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Enterprise AE UK (Finance Automation)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Steven  Jones</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>796</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Redwood Software</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Enterprise AE UK (Finance Automation)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tom Harries</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>813</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Laurel</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Enterprise Account Executive UK x4</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Tom Harries</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
